--- a/assets/templates/KASI0001_episodes.xlsx
+++ b/assets/templates/KASI0001_episodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramadhan Nkuutu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenono Thinkpad L390\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2CF353-0941-4030-8CD1-35FC4C192367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03139CB4-D6D3-4E9B-84DE-9FFF67DD7BCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{A2A0392E-F1C2-4A2D-96C9-83CF73F8A05E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{A2A0392E-F1C2-4A2D-96C9-83CF73F8A05E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+  <si>
+    <t>episode</t>
+  </si>
   <si>
     <t>episode_url</t>
   </si>
@@ -33,59 +36,65 @@
     <t>season</t>
   </si>
   <si>
-    <t>episod 1</t>
-  </si>
-  <si>
-    <t>episod 2</t>
-  </si>
-  <si>
-    <t>episod 3</t>
-  </si>
-  <si>
-    <t>episod 4</t>
-  </si>
-  <si>
-    <t>episod 5</t>
-  </si>
-  <si>
-    <t>episod 6</t>
-  </si>
-  <si>
     <t>Season 1</t>
   </si>
   <si>
-    <t>episode_name</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qmqCstyPVURNLI6ONufgPAoNoLStG81W</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1s0WO7zb6djRle91aFSdUJpV0l5Xj3fVI</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nq_2-U6p4P0e-95gu2k6wUTHsiC7Yi31</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1dcPeep371b_pXfhMVr-Hm8DCqWQzMIhm</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12rNOrCgJVFiOzzCt1Av6FGgGAmKyQvvG</t>
+    <t>KIN EPISODE 1</t>
+  </si>
+  <si>
+    <t>KIN EPISODE 2</t>
+  </si>
+  <si>
+    <t>KIN EPISODE 3</t>
+  </si>
+  <si>
+    <t>KIN EPISODE 4</t>
+  </si>
+  <si>
+    <t>KIN EPISODE 5</t>
+  </si>
+  <si>
+    <t>KIN EPISODE 6</t>
+  </si>
+  <si>
+    <t>KIN EPISODE 7</t>
+  </si>
+  <si>
+    <t>KIN EPISODE 8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12qeR4Ddlp3cehg4o8SIpz0DwHm_AW4Si</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1I-uFiHBVNqrr9voml0Ttn3mX0KllIeGn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BtsNLY9OBSbk-lg5A77FPftqWBc9gdpW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1l6EneNKQboOylvcDmk3Pc8-AF2beNuxr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wDgqRr4tjwddH-2mjG5-oiigBzih1bUX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n6sZy30_5DrfdPAIF_ItbPKAHDFIYTcl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tLEJZHQKQ1gjdbCUm_5eGTtyFyyLnpE7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-Sbu3VWueWxO8BIzGzlwkjtTY1kPpLa-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,11 +127,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -145,7 +154,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B7E7088-5C96-46FB-9357-1AD8CAA93556}" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
   <autoFilter ref="A1:C9" xr:uid="{3B7E7088-5C96-46FB-9357-1AD8CAA93556}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F919B24A-7A1A-4A07-8340-0DB657F9FF34}" name="episode_name"/>
+    <tableColumn id="1" xr3:uid="{F919B24A-7A1A-4A07-8340-0DB657F9FF34}" name="episode"/>
     <tableColumn id="2" xr3:uid="{2B9FF4CA-257D-49B8-AB94-8E1829574C27}" name="episode_url"/>
     <tableColumn id="3" xr3:uid="{C1802691-A780-408B-A4A1-27B8E9B00078}" name="season"/>
   </tableColumns>
@@ -450,115 +459,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4CA7D8-A479-42F1-8480-B1D74747DE29}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="87.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{70FAF954-57BF-437C-9EBF-76F256CFEBCE}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{77678DB6-650D-4D54-A354-3E704F5C74B6}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{8AF6A036-58D5-4016-8255-D7BB8F48CB8A}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{8371701D-B98E-4141-9775-C1D8E392DD82}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{A595E7F0-0343-41BC-ACD7-469563051FA2}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{023C995B-4328-412A-8B64-21739E4BAC49}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{494913EE-8336-4300-B47F-019C654BBCAB}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9A422B8D-DF16-4AFC-9813-A9DD9F99377F}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{493F9DDC-F472-4C70-89A7-EE2BBD647417}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{1E062CFF-8C8B-4FF0-A0E6-829EAE25CDC1}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{917886D1-A282-4ABE-B7C4-12C439DC0487}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{84738A3E-2058-4229-8EA8-2EDD0FFA1AA6}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{1DEAA34B-57F7-457A-B3A1-5B1AFDD04100}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{87C8F136-30B5-483C-BF20-85174B2125D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/assets/templates/KASI0001_episodes.xlsx
+++ b/assets/templates/KASI0001_episodes.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenono Thinkpad L390\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVIN D\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03139CB4-D6D3-4E9B-84DE-9FFF67DD7BCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{A2A0392E-F1C2-4A2D-96C9-83CF73F8A05E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>episode</t>
   </si>
@@ -36,61 +35,73 @@
     <t>season</t>
   </si>
   <si>
-    <t>Season 1</t>
-  </si>
-  <si>
-    <t>KIN EPISODE 1</t>
-  </si>
-  <si>
-    <t>KIN EPISODE 2</t>
-  </si>
-  <si>
-    <t>KIN EPISODE 3</t>
-  </si>
-  <si>
-    <t>KIN EPISODE 4</t>
-  </si>
-  <si>
-    <t>KIN EPISODE 5</t>
-  </si>
-  <si>
-    <t>KIN EPISODE 6</t>
-  </si>
-  <si>
-    <t>KIN EPISODE 7</t>
-  </si>
-  <si>
-    <t>KIN EPISODE 8</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12qeR4Ddlp3cehg4o8SIpz0DwHm_AW4Si</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1I-uFiHBVNqrr9voml0Ttn3mX0KllIeGn</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1BtsNLY9OBSbk-lg5A77FPftqWBc9gdpW</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1l6EneNKQboOylvcDmk3Pc8-AF2beNuxr</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wDgqRr4tjwddH-2mjG5-oiigBzih1bUX</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1n6sZy30_5DrfdPAIF_ItbPKAHDFIYTcl</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tLEJZHQKQ1gjdbCUm_5eGTtyFyyLnpE7</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-Sbu3VWueWxO8BIzGzlwkjtTY1kPpLa-</t>
+    <t>SEASON 1</t>
+  </si>
+  <si>
+    <t>THE ACCIDENT 1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13kOFU6OnElE5jO5lZZikUfze28RVvV4t</t>
+  </si>
+  <si>
+    <t>THE ACCIDENT 2</t>
+  </si>
+  <si>
+    <t>THE ACCIDENT 3</t>
+  </si>
+  <si>
+    <t>THE ACCIDENT 4</t>
+  </si>
+  <si>
+    <t>THE ACCIDENT 5</t>
+  </si>
+  <si>
+    <t>THE ACCIDENT 6</t>
+  </si>
+  <si>
+    <t>THE ACCIDENT 7</t>
+  </si>
+  <si>
+    <t>THE ACCIDENT 8</t>
+  </si>
+  <si>
+    <t>THE ACCIDENT 9</t>
+  </si>
+  <si>
+    <t>THE ACCIDENT 10 END</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15si59Na9daazw5O1RACJLeqA6ELmk6ia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rPurq6j7mxm27Me2koHJuda0Dk8iCxXf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Er869yiZxY_fXV4Q-ik2_42Fl9QL5Fkk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XyEzLi-mWDDGUQmFF0mpkB8uj_dhEgag</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zUwvTNXDgiv4RZad8RCHh1VL4fb8Iyqc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lvcBpEjoIllAQ2e_Tup9khc4tUHqUiF3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WtCwy-68wFskQxpPHnxEbL1zAzw4_tlh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U-EzAJIZg2dgGillNhUCVtnJLy3oPpz7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yzMejdGHo-a6visKn7pjcfHaxnt8l2g-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,12 +162,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B7E7088-5C96-46FB-9357-1AD8CAA93556}" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9" xr:uid="{3B7E7088-5C96-46FB-9357-1AD8CAA93556}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F919B24A-7A1A-4A07-8340-0DB657F9FF34}" name="episode"/>
-    <tableColumn id="2" xr3:uid="{2B9FF4CA-257D-49B8-AB94-8E1829574C27}" name="episode_url"/>
-    <tableColumn id="3" xr3:uid="{C1802691-A780-408B-A4A1-27B8E9B00078}" name="season"/>
+    <tableColumn id="1" name="episode"/>
+    <tableColumn id="2" name="episode_url"/>
+    <tableColumn id="3" name="season"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -458,17 +469,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4CA7D8-A479-42F1-8480-B1D74747DE29}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="87.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
@@ -494,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -502,10 +513,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -513,10 +524,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -524,10 +535,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -535,10 +546,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -546,10 +557,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -557,10 +568,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -568,29 +579,47 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{494913EE-8336-4300-B47F-019C654BBCAB}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{9A422B8D-DF16-4AFC-9813-A9DD9F99377F}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{493F9DDC-F472-4C70-89A7-EE2BBD647417}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{1E062CFF-8C8B-4FF0-A0E6-829EAE25CDC1}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{917886D1-A282-4ABE-B7C4-12C439DC0487}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{84738A3E-2058-4229-8EA8-2EDD0FFA1AA6}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{1DEAA34B-57F7-457A-B3A1-5B1AFDD04100}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{87C8F136-30B5-483C-BF20-85174B2125D1}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>